--- a/데이터베이스 테이블/기업 테이블(완)/Business Table.xlsx
+++ b/데이터베이스 테이블/기업 테이블(완)/Business Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\기업 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\green - 1차 프로젝트\웹 페이지 그림 - prototype\데이터베이스 테이블\기업 테이블(완)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6AE166-266E-43B7-9CFF-E22826A46556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF90E4E5-7399-4E7D-96FD-21B9413F2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="315" windowWidth="17910" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2100" windowWidth="27810" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,6 +586,63 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,62 +652,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -949,23 +958,23 @@
     <col min="10" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -996,204 +1005,339 @@
       <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="29" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="26"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="25"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/데이터베이스 테이블/기업 테이블(완)/Business Table.xlsx
+++ b/데이터베이스 테이블/기업 테이블(완)/Business Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\green - 1차 프로젝트\웹 페이지 그림 - prototype\데이터베이스 테이블\기업 테이블(완)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF90E4E5-7399-4E7D-96FD-21B9413F2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC074936-7362-42D8-BA69-176CB2AB5711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2100" windowWidth="27810" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="2100" windowWidth="29010" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>company_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>address_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사업장 주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FK(address)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업종 메인 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,15 +190,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5 Byte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,6 +635,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,15 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -958,23 +947,23 @@
     <col min="10" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
+    <row r="1" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -994,25 +983,25 @@
         <v>9</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1032,99 +1021,99 @@
         <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1135,209 +1124,93 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="H7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="27"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="31"/>
+    <row r="19" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="28"/>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-    </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-    </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+    <row r="20" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="28"/>
+      <c r="E20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
